--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04830066666666667</v>
+        <v>0.141273</v>
       </c>
       <c r="H2">
-        <v>0.144902</v>
+        <v>0.423819</v>
       </c>
       <c r="I2">
-        <v>0.1707314486758186</v>
+        <v>0.1452991921823077</v>
       </c>
       <c r="J2">
-        <v>0.1707314486758186</v>
+        <v>0.1452991921823077</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.807091</v>
+        <v>4.685980666666667</v>
       </c>
       <c r="N2">
-        <v>23.421273</v>
+        <v>14.057942</v>
       </c>
       <c r="O2">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="P2">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="Q2">
-        <v>0.3770877000273333</v>
+        <v>0.662002546722</v>
       </c>
       <c r="R2">
-        <v>3.393789300246</v>
+        <v>5.958022920498</v>
       </c>
       <c r="S2">
-        <v>0.05349574557753443</v>
+        <v>0.03015659040321444</v>
       </c>
       <c r="T2">
-        <v>0.05349574557753443</v>
+        <v>0.03015659040321445</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04830066666666667</v>
+        <v>0.141273</v>
       </c>
       <c r="H3">
-        <v>0.144902</v>
+        <v>0.423819</v>
       </c>
       <c r="I3">
-        <v>0.1707314486758186</v>
+        <v>0.1452991921823077</v>
       </c>
       <c r="J3">
-        <v>0.1707314486758186</v>
+        <v>0.1452991921823077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.101943</v>
       </c>
       <c r="O3">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="P3">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="Q3">
-        <v>0.6134497493984444</v>
+        <v>1.794258597813</v>
       </c>
       <c r="R3">
-        <v>5.521047744586</v>
+        <v>16.148327380317</v>
       </c>
       <c r="S3">
-        <v>0.08702737245484987</v>
+        <v>0.08173491458547942</v>
       </c>
       <c r="T3">
-        <v>0.08702737245484987</v>
+        <v>0.08173491458547942</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04830066666666667</v>
+        <v>0.141273</v>
       </c>
       <c r="H4">
-        <v>0.144902</v>
+        <v>0.423819</v>
       </c>
       <c r="I4">
-        <v>0.1707314486758186</v>
+        <v>0.1452991921823077</v>
       </c>
       <c r="J4">
-        <v>0.1707314486758186</v>
+        <v>0.1452991921823077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.408559666666666</v>
+        <v>5.191163</v>
       </c>
       <c r="N4">
-        <v>13.225679</v>
+        <v>15.573489</v>
       </c>
       <c r="O4">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="P4">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="Q4">
-        <v>0.2129363709397777</v>
+        <v>0.733371170499</v>
       </c>
       <c r="R4">
-        <v>1.916427338458</v>
+        <v>6.600340534490999</v>
       </c>
       <c r="S4">
-        <v>0.03020833064343428</v>
+        <v>0.03340768719361381</v>
       </c>
       <c r="T4">
-        <v>0.03020833064343428</v>
+        <v>0.03340768719361381</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2346036666666667</v>
+        <v>0.8310173333333334</v>
       </c>
       <c r="H5">
-        <v>0.703811</v>
+        <v>2.493052</v>
       </c>
       <c r="I5">
-        <v>0.8292685513241814</v>
+        <v>0.8547008078176923</v>
       </c>
       <c r="J5">
-        <v>0.8292685513241814</v>
+        <v>0.8547008078176923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.807091</v>
+        <v>4.685980666666667</v>
       </c>
       <c r="N5">
-        <v>23.421273</v>
+        <v>14.057942</v>
       </c>
       <c r="O5">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="P5">
-        <v>0.3133326987643095</v>
+        <v>0.2075482316885617</v>
       </c>
       <c r="Q5">
-        <v>1.831572174600333</v>
+        <v>3.894131157664889</v>
       </c>
       <c r="R5">
-        <v>16.484149571403</v>
+        <v>35.047180418984</v>
       </c>
       <c r="S5">
-        <v>0.259836953186775</v>
+        <v>0.1773916412853472</v>
       </c>
       <c r="T5">
-        <v>0.259836953186775</v>
+        <v>0.1773916412853473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2346036666666667</v>
+        <v>0.8310173333333334</v>
       </c>
       <c r="H6">
-        <v>0.703811</v>
+        <v>2.493052</v>
       </c>
       <c r="I6">
-        <v>0.8292685513241814</v>
+        <v>0.8547008078176923</v>
       </c>
       <c r="J6">
-        <v>0.8292685513241814</v>
+        <v>0.8547008078176923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>38.101943</v>
       </c>
       <c r="O6">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="P6">
-        <v>0.5097325251430138</v>
+        <v>0.5625283482851452</v>
       </c>
       <c r="Q6">
-        <v>2.979618511641444</v>
+        <v>10.55445835555956</v>
       </c>
       <c r="R6">
-        <v>26.816566604773</v>
+        <v>94.990125200036</v>
       </c>
       <c r="S6">
-        <v>0.4227051526881639</v>
+        <v>0.4807934336996658</v>
       </c>
       <c r="T6">
-        <v>0.4227051526881639</v>
+        <v>0.4807934336996658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2346036666666667</v>
+        <v>0.8310173333333334</v>
       </c>
       <c r="H7">
-        <v>0.703811</v>
+        <v>2.493052</v>
       </c>
       <c r="I7">
-        <v>0.8292685513241814</v>
+        <v>0.8547008078176923</v>
       </c>
       <c r="J7">
-        <v>0.8292685513241814</v>
+        <v>0.8547008078176923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.408559666666666</v>
+        <v>5.191163</v>
       </c>
       <c r="N7">
-        <v>13.225679</v>
+        <v>15.573489</v>
       </c>
       <c r="O7">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="P7">
-        <v>0.1769347760926767</v>
+        <v>0.2299234200262931</v>
       </c>
       <c r="Q7">
-        <v>1.034264262518778</v>
+        <v>4.313946433158667</v>
       </c>
       <c r="R7">
-        <v>9.308378362669</v>
+        <v>38.825517898428</v>
       </c>
       <c r="S7">
-        <v>0.1467264454492424</v>
+        <v>0.1965157328326793</v>
       </c>
       <c r="T7">
-        <v>0.1467264454492424</v>
+        <v>0.1965157328326793</v>
       </c>
     </row>
   </sheetData>
